--- a/ck_new.xlsx
+++ b/ck_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonlin/PycharmProjects/sheet_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D3F1F-0E6F-1E4D-945C-06BD883478B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A71DC4-7659-734F-8365-34B1DE7B4907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1640" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>_lxsdk_cuid=17be842d962c8-0a1d4e836d65ba-a7d193d-1fa400-17be842d963c8; _lxsdk=17be842d962c8-0a1d4e836d65ba-a7d193d-1fa400-17be842d963c8; uuid=d1d313e1db876614ac59.1631689300.1.0.0; bizType=1; _ga=GA1.2.902764038.1631857428; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=567; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=gOXjpp20E7uptyumhWyGip4RtcvHrpAp1axJFp2e15-70K_hvVXuj_6Hm3W3oJKV1xFNE5qSBQeQn1xilYHKkg; com.sankuai.meishi.fe.bizsettle-bsid=gOXjpp20E7uptyumhWyGip4RtcvHrpAp1axJFp2e15-70K_hvVXuj_6Hm3W3oJKV1xFNE5qSBQeQn1xilYHKkg; com.sankuai.meishi.fe.bizvisual-bsid=gOXjpp20E7uptyumhWyGip4RtcvHrpAp1axJFp2e15-70K_hvVXuj_6Hm3W3oJKV1xFNE5qSBQeQn1xilYHKkg; poi_storage_60028448=179285070; logan_session_token=hfugr0m4djuwfqlfh0m1; _lxsdk_s=17f8636bfc4-931-bb1-532||172</t>
   </si>
@@ -40,48 +40,21 @@
     <t>_lxsdk_cuid=17b959479a0c8-00945f9b40b244-c343365-1fa400-17b959479a1c8; _lxsdk=17b959479a0c8-00945f9b40b244-c343365-1fa400-17b959479a1c8; uuid=a7d4238659704806d7ba.1630302141.1.0.0; grayCityId=; _hc.v=96ad2535-7db4-5b4b-c2bf-fc3ecaf8a443.1630395494; bizType=1; _ga=GA1.2.67572833.1631328048; poi_storage_109185325=576511254; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=ZRxhWmpo08-tBBdj6OHV318MwCnt0u1KPRcTpuCVhZjd3A239d-9UFTh6mVq3bfn5YMjV1S_p0k1MevNRBas-A; com.sankuai.meishi.fe.bizsettle-bsid=ZRxhWmpo08-tBBdj6OHV318MwCnt0u1KPRcTpuCVhZjd3A239d-9UFTh6mVq3bfn5YMjV1S_p0k1MevNRBas-A; com.sankuai.meishi.fe.bizvisual-bsid=ZRxhWmpo08-tBBdj6OHV318MwCnt0u1KPRcTpuCVhZjd3A239d-9UFTh6mVq3bfn5YMjV1S_p0k1MevNRBas-A; logan_session_token=d49x0gcho0jdn9j1msbx; _lxsdk_s=17f1a2ef8cc-a11-6cd-d6d||83</t>
   </si>
   <si>
-    <t>_lxsdk_cuid=17bed4832b3c8-094b62e296e452-a7d173c-1fa400-17bed4832b3c8; _lxsdk=17bed4832b3c8-094b62e296e452-a7d173c-1fa400-17bed4832b3c8; uuid=24915b331207f3f5110f.1631773537.1.0.0; _ga=GA1.2.1494262986.1632384182; _hc.v=606ae66c-f88d-eabf-9e0b-e1f7eda4da49.1632642008; bizType=1; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=NPVmbcMOui_83fxBBuqKxSDZrxoJozNK2vzSpv7C6P08kDJAQW6RqMrif4ZbsKDBPCSjkUjGkARPNpv7GKnswg; com.sankuai.meishi.fe.bizsettle-bsid=NPVmbcMOui_83fxBBuqKxSDZrxoJozNK2vzSpv7C6P08kDJAQW6RqMrif4ZbsKDBPCSjkUjGkARPNpv7GKnswg; com.sankuai.meishi.fe.bizvisual-bsid=NPVmbcMOui_83fxBBuqKxSDZrxoJozNK2vzSpv7C6P08kDJAQW6RqMrif4ZbsKDBPCSjkUjGkARPNpv7GKnswg; poi_storage_72082912=884237632; logan_session_token=p90dsnxyf120xrent4y9; _lxsdk_s=17f057ef47c-f8-9ac-32a||73</t>
-  </si>
-  <si>
-    <t>_lxsdk_cuid=17cfe0c81f9c8-012fa154005844-57b1a33-1fa400-17cfe0c81f988; _lxsdk=17cfe0c81f9c8-012fa154005844-57b1a33-1fa400-17cfe0c81f988; uuid=d270c68a4885511b6d14.1636349806.1.0.0; bizType=1; _ga=GA1.2.71303944.1636793161; _hc.v=f91e991c-8aa4-3aa8-46e3-b13b2f2addc3.1640252407; poi_storage_113605889=1052039906; _gw_ab_call_8596_39=TRUE; _gw_ab_8596_39=707; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=798; _gw_ab_call_8596_40=TRUE; _gw_ab_8596_40=30; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=VUQK9TAKKJlyIzDD6qpDYkrXSE1LjyOdsR1Ur1r8vqy0QLI8U0eS_otUdSz1UpNdlICnfzzDFUohB8wTRs8ZbQ; com.sankuai.meishi.fe.bizsettle-bsid=VUQK9TAKKJlyIzDD6qpDYkrXSE1LjyOdsR1Ur1r8vqy0QLI8U0eS_otUdSz1UpNdlICnfzzDFUohB8wTRs8ZbQ; com.sankuai.meishi.fe.bizvisual-bsid=VUQK9TAKKJlyIzDD6qpDYkrXSE1LjyOdsR1Ur1r8vqy0QLI8U0eS_otUdSz1UpNdlICnfzzDFUohB8wTRs8ZbQ; logan_session_token=i2o3bw05yeo0koaoiyb9; _lxsdk_s=17f71f48273-936-4c-0ee||67</t>
-  </si>
-  <si>
     <t>_lxsdk_cuid=17cbbbee3bbc8-04fe404bf19879-b7a1438-1fa400-17cbbbee3bbc8; _lxsdk=17cbbbee3bbc8-04fe404bf19879-b7a1438-1fa400-17cbbbee3bbc8; uuid=9678a7d8010fbef39ac2.1635237422.1.0.0; bizType=1; _ga=GA1.2.1258256054.1639195281; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=vOnMFsLVIJnfcnqmDQs_52u8PRsJnOBE_TAZO38ld2EBSXSVfxH4bP6wB5vn7kG55PaOhXN8ss-x34t46miD2Q; com.sankuai.meishi.fe.bizsettle-bsid=vOnMFsLVIJnfcnqmDQs_52u8PRsJnOBE_TAZO38ld2EBSXSVfxH4bP6wB5vn7kG55PaOhXN8ss-x34t46miD2Q; com.sankuai.meishi.fe.bizvisual-bsid=vOnMFsLVIJnfcnqmDQs_52u8PRsJnOBE_TAZO38ld2EBSXSVfxH4bP6wB5vn7kG55PaOhXN8ss-x34t46miD2Q; poi_storage_113243629=1715883728; logan_session_token=bhkj6xly1lgzez2ekw9k; _lxsdk_s=17f77aba46e-c9f-47b-46e||73</t>
   </si>
   <si>
     <t>_lxsdk_cuid=17d5f4735fdc8-0ebb21c7939cf9-978183a-1fa400-17d5f4735fec8; _lxsdk=17d5f4735fdc8-0ebb21c7939cf9-978183a-1fa400-17d5f4735fec8; uuid=d9b86c46b7e733a34802.1637981042.1.0.0; bizType=1; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=r9aSkCu07yBESPJOUnItSqq-7g93ybc-eBJkc7WQWeFRcqCsNQ8KyiG_D9xkGv1W9Djifk0y60rhrvOCvBCwYw; com.sankuai.meishi.fe.bizsettle-bsid=r9aSkCu07yBESPJOUnItSqq-7g93ybc-eBJkc7WQWeFRcqCsNQ8KyiG_D9xkGv1W9Djifk0y60rhrvOCvBCwYw; com.sankuai.meishi.fe.bizvisual-bsid=r9aSkCu07yBESPJOUnItSqq-7g93ybc-eBJkc7WQWeFRcqCsNQ8KyiG_D9xkGv1W9Djifk0y60rhrvOCvBCwYw; logan_session_token=gxx43s537wzroimzsjqw; poi_storage_111737282=1123414795; _lxsdk_s=17f77aa5f7b-67d-47d-ff4||45</t>
   </si>
   <si>
-    <t>_lxsdk_cuid=17d6e8d5684c8-074c3b6047cccb-978183a-1fa400-17d6e8d568474; _lxsdk=17d6e8d5684c8-074c3b6047cccb-978183a-1fa400-17d6e8d568474; uuid=14be90988444e308a23a.1638237297.1.0.0; bizType=1; _hc.v=41482af1-2ef4-0e5b-d035-9953b49afe44.1641881267; ci=108; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=YBwe3hEu8MH_a_cvdon_qp3l_PFXWV3e9ZlCmuc7eoqlY7ZV1IcW1kO9LrE4fa5Eg1nQVXJ2WlUrceStLcpLgA; com.sankuai.meishi.fe.bizsettle-bsid=YBwe3hEu8MH_a_cvdon_qp3l_PFXWV3e9ZlCmuc7eoqlY7ZV1IcW1kO9LrE4fa5Eg1nQVXJ2WlUrceStLcpLgA; com.sankuai.meishi.fe.bizvisual-bsid=YBwe3hEu8MH_a_cvdon_qp3l_PFXWV3e9ZlCmuc7eoqlY7ZV1IcW1kO9LrE4fa5Eg1nQVXJ2WlUrceStLcpLgA; logan_session_token=lipoy2md0a7abak6a683; poi_storage_111816236=547110627; _lxsdk_s=17f71f3eded-c52-906-203||71</t>
-  </si>
-  <si>
-    <t>_lxsdk_cuid=17d6fdf8181c8-00fdf44491b539-978183a-1fa400-17d6fdf8181c8; _lxsdk=17d6fdf8181c8-00fdf44491b539-978183a-1fa400-17d6fdf8181c8; uuid=db3d1e888402be10340e.1638259459.1.0.0; bizType=1; _ga=GA1.2.1919345054.1638260685; poi_storage_115441884=1727888652; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=575; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=_FjKNfRoLg1eEhL2JO76AKzxlkBVppijvZk6hniQYLWD-mLIYVegTDKoo_cwqcIfHeXWYrkoNH7YjLoFdk03Fg; com.sankuai.meishi.fe.bizsettle-bsid=_FjKNfRoLg1eEhL2JO76AKzxlkBVppijvZk6hniQYLWD-mLIYVegTDKoo_cwqcIfHeXWYrkoNH7YjLoFdk03Fg; com.sankuai.meishi.fe.bizvisual-bsid=_FjKNfRoLg1eEhL2JO76AKzxlkBVppijvZk6hniQYLWD-mLIYVegTDKoo_cwqcIfHeXWYrkoNH7YjLoFdk03Fg; logan_session_token=098ufu7q7y21o15bqp2c; _lxsdk_s=17f71f5239d-623-015-89a||76</t>
-  </si>
-  <si>
-    <t>_lxsdk_cuid=17dc25d3d45c8-02145e95a82d04-4303066-1fa400-17dc25d3d45c8; _lxsdk=17dc25d3d45c8-02145e95a82d04-4303066-1fa400-17dc25d3d45c8; uuid=fc57b7dd0604d9032cec.1639643430.1.0.0; bizType=1; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=aqCicGCP9rxK4wIMZijgUQ-L2kHvAh2F0seJqbG6Qm7ij8GW_J6z7TnEv_8WpxxL1VhnaHB3KH2Moej28KfLDQ; com.sankuai.meishi.fe.bizsettle-bsid=aqCicGCP9rxK4wIMZijgUQ-L2kHvAh2F0seJqbG6Qm7ij8GW_J6z7TnEv_8WpxxL1VhnaHB3KH2Moej28KfLDQ; com.sankuai.meishi.fe.bizvisual-bsid=aqCicGCP9rxK4wIMZijgUQ-L2kHvAh2F0seJqbG6Qm7ij8GW_J6z7TnEv_8WpxxL1VhnaHB3KH2Moej28KfLDQ; poi_storage_106952867=781412428; logan_session_token=o7cca0ufltkf55a6ax3f; _lxsdk_s=17f057d15c8-3a7-00a-e5a||105</t>
-  </si>
-  <si>
     <t>_lxsdk_cuid=17bf2abb1f7c8-0a5075bdfe912a-a7d173c-1fa400-17bf2abb1f8c8; _lxsdk=17bf2abb1f7c8-0a5075bdfe912a-a7d173c-1fa400-17bf2abb1f8c8; uuid=682942c7e38ccb58ae74.1631863944.1.0.0; _ga=GA1.2.1059957515.1632903894; bizType=1; _gw_ab_call_8596_40=TRUE; _gw_ab_8596_40=720; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=FV-gcTbTyBG-Le5OyR6E0gygS56fPvk6QX4l1_UEeqK9z2EVzfQSo9CkV34BwaTO_o9M_NncSOzX-vmOmoSKTQ; com.sankuai.meishi.fe.bizsettle-bsid=FV-gcTbTyBG-Le5OyR6E0gygS56fPvk6QX4l1_UEeqK9z2EVzfQSo9CkV34BwaTO_o9M_NncSOzX-vmOmoSKTQ; com.sankuai.meishi.fe.bizvisual-bsid=FV-gcTbTyBG-Le5OyR6E0gygS56fPvk6QX4l1_UEeqK9z2EVzfQSo9CkV34BwaTO_o9M_NncSOzX-vmOmoSKTQ; poi_storage_115856115=1563306917; logan_session_token=425w2krfijdsgz3n80ca; _lxsdk_s=17f90997f9d-9ea-0fe-881||88</t>
   </si>
   <si>
     <t>_lxsdk_cuid=17be8ae3709c8-05b7c32343fb72-a7d193d-1fa400-17be8ae3709c8; _lxsdk=17be8ae3709c8-05b7c32343fb72-a7d193d-1fa400-17be8ae3709c8; uuid=bcdf700a6bfbf45ff8e1.1631696337.1.0.0; _ga=GA1.2.359808095.1635212017; bizType=1; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=28; _gw_ab_call_15506_15=TRUE; _gw_ab_15506_15=78; com.sankuai.meishi.fe.kdb-bsid=EKMr6LwvbXxxHvHKRhthzpRisucSNeBRQqvGb4gdRlXnGMXix1Z5HpG5rDpBQWFpuAOGvuqBR94oNwebmb72wA; com.sankuai.meishi.fe.bizsettle-bsid=EKMr6LwvbXxxHvHKRhthzpRisucSNeBRQqvGb4gdRlXnGMXix1Z5HpG5rDpBQWFpuAOGvuqBR94oNwebmb72wA; com.sankuai.meishi.fe.bizvisual-bsid=EKMr6LwvbXxxHvHKRhthzpRisucSNeBRQqvGb4gdRlXnGMXix1Z5HpG5rDpBQWFpuAOGvuqBR94oNwebmb72wA; _hc.v=2c905374-101f-259e-76b6-d1b354c6b93a.1646288174; ci=108; _gw_ab_call_8596_40=TRUE; _gw_ab_8596_40=903; poi_storage_59091624=1040380598; _gw_ab_call_19794_25=TRUE; _gw_ab_19794_25=668; logan_session_token=zzfl7vv4buqanryoyf66; logan_custom_report=; _lxsdk_s=17f90db8ab9-274-233-40e||49</t>
   </si>
   <si>
-    <t>_lxsdk_cuid=17b76ace9a734-0a3cc2535f678a-3e604809-1fa400-17b76ace9a8c8; _lxsdk=17b76ace9a734-0a3cc2535f678a-3e604809-1fa400-17b76ace9a8c8; uuid=21e8894ca144b333882e.1629783649.1.0.0; _hc.v=5edf667b-6b46-6636-1044-fa3da75fef25.1630049536; _ga=GA1.2.1854323217.1630128958; bizType=1; poi_storage_96912709=1879833770; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=mx4h581C8JXTum1tMTHKPFhRt5kdhodYKWTjjfLzo_cjMEIhnYbcMWqET-F8PUpXgyv8GO_DxxuT7TWuDseN-Q; com.sankuai.meishi.fe.bizsettle-bsid=mx4h581C8JXTum1tMTHKPFhRt5kdhodYKWTjjfLzo_cjMEIhnYbcMWqET-F8PUpXgyv8GO_DxxuT7TWuDseN-Q; com.sankuai.meishi.fe.bizvisual-bsid=mx4h581C8JXTum1tMTHKPFhRt5kdhodYKWTjjfLzo_cjMEIhnYbcMWqET-F8PUpXgyv8GO_DxxuT7TWuDseN-Q; logan_session_token=6cgca5jssd5hijd6jbzf; _lxsdk_s=17f86348ae8-ab5-a0f-fd2%7C%7C122</t>
-  </si>
-  <si>
-    <t>_lxsdk_cuid=17e7058e693c8-01d457634501cc-f791b31-1fa400-17e7058e693c8; _lxsdk=17e7058e693c8-01d457634501cc-f791b31-1fa400-17e7058e693c8; uuid=023dc6cd57157082fc27.1642562393.1.0.0; bizType=1; com.sankuai.meishi.fe.kdb-bsid=yMCtAf5i8cckgDTC-JdxWVHZF_dWKeNnqqfFKhLrQn8n8Ungd13W0MWSytusazXBEQbS8PZvLUzFeP7B8QNkBg; com.sankuai.meishi.fe.bizsettle-bsid=yMCtAf5i8cckgDTC-JdxWVHZF_dWKeNnqqfFKhLrQn8n8Ungd13W0MWSytusazXBEQbS8PZvLUzFeP7B8QNkBg; com.sankuai.meishi.fe.bizvisual-bsid=yMCtAf5i8cckgDTC-JdxWVHZF_dWKeNnqqfFKhLrQn8n8Ungd13W0MWSytusazXBEQbS8PZvLUzFeP7B8QNkBg; poi_storage_69651656=749359517; logan_session_token=r0oysgf4o6d37lluww5s; _lxsdk_s=17f63023024-8c3-60a-ad||306</t>
-  </si>
-  <si>
-    <t>_lxsdk_cuid=17c9161d480c8-0afeb5d6c4bff6-b7a1438-1fa400-17c9161d480c8; _lxsdk=17c9161d480c8-0afeb5d6c4bff6-b7a1438-1fa400-17c9161d480c8; uuid=d8d3f02956804fa4e793.1634526680.1.0.0; bizType=1; poi_storage_117784746=161097115; _gw_ab_call_8596_38=TRUE; _gw_ab_8596_38=506; _ga=GA1.2.702618546.1644891740; _gid=GA1.2.1930695669.1644891740; _hc.v=f8e38cbe-ea1d-7c05-6837-b402557696c4.1644896457; ci=108; com.sankuai.meishi.fe.kdb-bsid=_VZdX7EYDt-_ilziGzM_uDAn8M9E_CYt-X6k9oJyM20TBOdZSQV4Ia60k90THBf6JjbrsmEKGsQixvr7hiOjIQ; com.sankuai.meishi.fe.bizsettle-bsid=_VZdX7EYDt-_ilziGzM_uDAn8M9E_CYt-X6k9oJyM20TBOdZSQV4Ia60k90THBf6JjbrsmEKGsQixvr7hiOjIQ; com.sankuai.meishi.fe.bizvisual-bsid=_VZdX7EYDt-_ilziGzM_uDAn8M9E_CYt-X6k9oJyM20TBOdZSQV4Ia60k90THBf6JjbrsmEKGsQixvr7hiOjIQ; logan_custom_report=; logan_session_token=s39x1jnutgcfnwcyd7qs; _lxsdk_s=17f010963c2-93f-909-981||684</t>
-  </si>
-  <si>
     <t>_lxsdk_cuid=17e952f5e5ac8-0ef5dad2a075fc-f791539-1fa400-17e952f5e5ac8; _lxsdk=17e952f5e5ac8-0ef5dad2a075fc-f791539-1fa400-17e952f5e5ac8; uuid=94a09119bf0f4670d632.1643180417.1.0.0; bizType=1; poi_storage_116956342=1375182965; _ga=GA1.2.1573551376.1644460065; _hc.v=82fc771b-d7f0-5369-e641-542ac9ac6a29.1644461854; ci=108; _gw_ab_call_8596_39=TRUE; _gw_ab_8596_39=697; com.sankuai.meishi.fe.kdb-bsid=X6zHd_Kivdckgjvs_Q6HQN6-zjmZlO9gm69kg9iO_tRR7drVd-8KfmuEQmv8anscJfBi2xZIyJzWMHlBR86Adg; com.sankuai.meishi.fe.bizsettle-bsid=X6zHd_Kivdckgjvs_Q6HQN6-zjmZlO9gm69kg9iO_tRR7drVd-8KfmuEQmv8anscJfBi2xZIyJzWMHlBR86Adg; com.sankuai.meishi.fe.bizvisual-bsid=X6zHd_Kivdckgjvs_Q6HQN6-zjmZlO9gm69kg9iO_tRR7drVd-8KfmuEQmv8anscJfBi2xZIyJzWMHlBR86Adg; logan_session_token=dw00i6y6spqeo6xsnmq4; _lxsdk_s=17f3f288a57-46a-e67-333||45</t>
   </si>
   <si>
-    <t>_lxsdk_cuid=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; _lxsdk=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; uuid=c8f83e9b03a2f7e272f5.1631676184.1.0.0; bizType=1; _ga=GA1.2.1224960510.1633924129; _hc.v=3ae2a3d9-2980-079d-8629-c3f18c42da05.1636612396; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; com.sankuai.meishi.fe.bizsettle-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; com.sankuai.meishi.fe.bizvisual-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; logan_session_token=xljop7cmib6wiq3musnb; poi_storage_112377752=1396489376; _lxsdk_s=17f72663770-5ea-326-96b||42</t>
-  </si>
-  <si>
     <t>老北京涮肉_新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +117,47 @@
   <si>
     <t>丘CHILL_新</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串和城电烤_新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来（）酒馆_新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17bed4832b3c8-094b62e296e452-a7d173c-1fa400-17bed4832b3c8; _lxsdk=17bed4832b3c8-094b62e296e452-a7d173c-1fa400-17bed4832b3c8; uuid=24915b331207f3f5110f.1631773537.1.0.0; _ga=GA1.2.1494262986.1632384182; _hc.v=606ae66c-f88d-eabf-9e0b-e1f7eda4da49.1632642008; bizType=1; _gw_ab_call_8596_40=TRUE; _gw_ab_8596_40=653; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=fNjRQ9j3PmihEemw7VSixEaJE_uYRMkdN5uupb0O8X4fiYUh8tLvw-DNHZuQQy0SGcXDUVsVhWLCdj-tZ8XNRw; com.sankuai.meishi.fe.bizsettle-bsid=fNjRQ9j3PmihEemw7VSixEaJE_uYRMkdN5uupb0O8X4fiYUh8tLvw-DNHZuQQy0SGcXDUVsVhWLCdj-tZ8XNRw; com.sankuai.meishi.fe.bizvisual-bsid=fNjRQ9j3PmihEemw7VSixEaJE_uYRMkdN5uupb0O8X4fiYUh8tLvw-DNHZuQQy0SGcXDUVsVhWLCdj-tZ8XNRw; poi_storage_72082912=884237632; logan_session_token=up0xl4igtptgjbeqs8xs; _lxsdk_s=17fa0fd8cc6-cd3-a30-db5||123</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17cfe0c81f9c8-012fa154005844-57b1a33-1fa400-17cfe0c81f988; _lxsdk=17cfe0c81f9c8-012fa154005844-57b1a33-1fa400-17cfe0c81f988; uuid=d270c68a4885511b6d14.1636349806.1.0.0; bizType=1; _ga=GA1.2.71303944.1636793161; _hc.v=f91e991c-8aa4-3aa8-46e3-b13b2f2addc3.1640252407; poi_storage_113605889=1052039906; _gw_ab_call_8596_39=TRUE; _gw_ab_8596_39=707; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=798; _gw_ab_call_8596_40=TRUE; _gw_ab_8596_40=30; com.sankuai.meishi.fe.kdb-bsid=VUQK9TAKKJlyIzDD6qpDYkrXSE1LjyOdsR1Ur1r8vqy0QLI8U0eS_otUdSz1UpNdlICnfzzDFUohB8wTRs8ZbQ; com.sankuai.meishi.fe.bizsettle-bsid=VUQK9TAKKJlyIzDD6qpDYkrXSE1LjyOdsR1Ur1r8vqy0QLI8U0eS_otUdSz1UpNdlICnfzzDFUohB8wTRs8ZbQ; com.sankuai.meishi.fe.bizvisual-bsid=VUQK9TAKKJlyIzDD6qpDYkrXSE1LjyOdsR1Ur1r8vqy0QLI8U0eS_otUdSz1UpNdlICnfzzDFUohB8wTRs8ZbQ; logan_session_token=1jppz5c15xpvgcmoz1h1; _lxsdk_s=17f9bc293f9-81b-302-29d||41</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17d6e8d5684c8-074c3b6047cccb-978183a-1fa400-17d6e8d568474; _lxsdk=17d6e8d5684c8-074c3b6047cccb-978183a-1fa400-17d6e8d568474; uuid=14be90988444e308a23a.1638237297.1.0.0; bizType=1; _hc.v=41482af1-2ef4-0e5b-d035-9953b49afe44.1641881267; com.sankuai.meishi.fe.kdb-bsid=YBwe3hEu8MH_a_cvdon_qp3l_PFXWV3e9ZlCmuc7eoqlY7ZV1IcW1kO9LrE4fa5Eg1nQVXJ2WlUrceStLcpLgA; com.sankuai.meishi.fe.bizsettle-bsid=YBwe3hEu8MH_a_cvdon_qp3l_PFXWV3e9ZlCmuc7eoqlY7ZV1IcW1kO9LrE4fa5Eg1nQVXJ2WlUrceStLcpLgA; com.sankuai.meishi.fe.bizvisual-bsid=YBwe3hEu8MH_a_cvdon_qp3l_PFXWV3e9ZlCmuc7eoqlY7ZV1IcW1kO9LrE4fa5Eg1nQVXJ2WlUrceStLcpLgA; poi_storage_111816236=547110627; _lxsdk_s=17faa35a296-a91-b65-86a||NaN; _lxsdk_s=17faa35a296-a91-b65-86a||1; logan_session_token=lrvicye6fqq2t59ifq16</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17d6fdf8181c8-00fdf44491b539-978183a-1fa400-17d6fdf8181c8; _lxsdk=17d6fdf8181c8-00fdf44491b539-978183a-1fa400-17d6fdf8181c8; uuid=db3d1e888402be10340e.1638259459.1.0.0; bizType=1; _ga=GA1.2.1919345054.1638260685; poi_storage_115441884=1727888652; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=575; com.sankuai.meishi.fe.kdb-bsid=_FjKNfRoLg1eEhL2JO76AKzxlkBVppijvZk6hniQYLWD-mLIYVegTDKoo_cwqcIfHeXWYrkoNH7YjLoFdk03Fg; com.sankuai.meishi.fe.bizsettle-bsid=_FjKNfRoLg1eEhL2JO76AKzxlkBVppijvZk6hniQYLWD-mLIYVegTDKoo_cwqcIfHeXWYrkoNH7YjLoFdk03Fg; com.sankuai.meishi.fe.bizvisual-bsid=_FjKNfRoLg1eEhL2JO76AKzxlkBVppijvZk6hniQYLWD-mLIYVegTDKoo_cwqcIfHeXWYrkoNH7YjLoFdk03Fg; _gw_ab_8596_41=866; _gw_ab_call_8596_41=TRUE; logan_session_token=secxpftqfn43r0few326; _lxsdk_s=17f9ff4d0b0-2fb-02c-10d||362</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17dc25d3d45c8-02145e95a82d04-4303066-1fa400-17dc25d3d45c8; _lxsdk=17dc25d3d45c8-02145e95a82d04-4303066-1fa400-17dc25d3d45c8; uuid=fc57b7dd0604d9032cec.1639643430.1.0.0; bizType=1; poi_storage_106952867=781412428; _ga=GA1.2.475556951.1646977476; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=Nljwzz0cEWT59-Q64WBOz6yxwV8OmzW10UwqF-1zqhpqDylvIoI1aAEnhJpgYF_4SmK8Oylw3KgDYoJHIRwYqg; com.sankuai.meishi.fe.bizsettle-bsid=Nljwzz0cEWT59-Q64WBOz6yxwV8OmzW10UwqF-1zqhpqDylvIoI1aAEnhJpgYF_4SmK8Oylw3KgDYoJHIRwYqg; com.sankuai.meishi.fe.bizvisual-bsid=Nljwzz0cEWT59-Q64WBOz6yxwV8OmzW10UwqF-1zqhpqDylvIoI1aAEnhJpgYF_4SmK8Oylw3KgDYoJHIRwYqg; logan_session_token=9psridhp4x0omoj5xyco; _lxsdk_s=17fa0ee417b-bd2-c0d-dd0||181</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17b76ace9a734-0a3cc2535f678a-3e604809-1fa400-17b76ace9a8c8; _lxsdk=17b76ace9a734-0a3cc2535f678a-3e604809-1fa400-17b76ace9a8c8; uuid=21e8894ca144b333882e.1629783649.1.0.0; _hc.v=5edf667b-6b46-6636-1044-fa3da75fef25.1630049536; _ga=GA1.2.1854323217.1630128958; bizType=1; poi_storage_96912709=1879833770; com.sankuai.meishi.fe.kdb-bsid=mx4h581C8JXTum1tMTHKPFhRt5kdhodYKWTjjfLzo_cjMEIhnYbcMWqET-F8PUpXgyv8GO_DxxuT7TWuDseN-Q; com.sankuai.meishi.fe.bizsettle-bsid=mx4h581C8JXTum1tMTHKPFhRt5kdhodYKWTjjfLzo_cjMEIhnYbcMWqET-F8PUpXgyv8GO_DxxuT7TWuDseN-Q; com.sankuai.meishi.fe.bizvisual-bsid=mx4h581C8JXTum1tMTHKPFhRt5kdhodYKWTjjfLzo_cjMEIhnYbcMWqET-F8PUpXgyv8GO_DxxuT7TWuDseN-Q; logan_session_token=n8vu0mcw672zpymbct9r; _lxsdk_s=17fa0fec0a9-beb-ae5-d73%7C%7C39</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17e7058e693c8-01d457634501cc-f791b31-1fa400-17e7058e693c8; _lxsdk=17e7058e693c8-01d457634501cc-f791b31-1fa400-17e7058e693c8; uuid=023dc6cd57157082fc27.1642562393.1.0.0; bizType=1; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=Rqkgu3y_PGXHsmXqL6rWRgaNaU_cNLK8u2GYxn8569HUghOIXNlDYl-PuaiqJwKj5b7kTrv8xHAAr_kZ_VMrkQ; com.sankuai.meishi.fe.bizsettle-bsid=Rqkgu3y_PGXHsmXqL6rWRgaNaU_cNLK8u2GYxn8569HUghOIXNlDYl-PuaiqJwKj5b7kTrv8xHAAr_kZ_VMrkQ; com.sankuai.meishi.fe.bizvisual-bsid=Rqkgu3y_PGXHsmXqL6rWRgaNaU_cNLK8u2GYxn8569HUghOIXNlDYl-PuaiqJwKj5b7kTrv8xHAAr_kZ_VMrkQ; poi_storage_69651656=749359517; logan_session_token=wjyi6z9tmvkuwi1c1hw8; _lxsdk_s=17faa37038f-632-fa5-c5e||67</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17c9161d480c8-0afeb5d6c4bff6-b7a1438-1fa400-17c9161d480c8; _lxsdk=17c9161d480c8-0afeb5d6c4bff6-b7a1438-1fa400-17c9161d480c8; uuid=d8d3f02956804fa4e793.1634526680.1.0.0; bizType=1; _ga=GA1.2.702618546.1644891740; _hc.v=f8e38cbe-ea1d-7c05-6837-b402557696c4.1644896457; ci=108; _gw_ab_call_8596_39=TRUE; _gw_ab_8596_39=353; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=Jk8B_nwuI0ec0aFUD0sBy1nio8nr2am4aY9Wq4jRe175Md9dWqT5wiMNGG3HdWZuL5mXj9SQv-X5e97ONtyH7g; com.sankuai.meishi.fe.bizsettle-bsid=Jk8B_nwuI0ec0aFUD0sBy1nio8nr2am4aY9Wq4jRe175Md9dWqT5wiMNGG3HdWZuL5mXj9SQv-X5e97ONtyH7g; com.sankuai.meishi.fe.bizvisual-bsid=Jk8B_nwuI0ec0aFUD0sBy1nio8nr2am4aY9Wq4jRe175Md9dWqT5wiMNGG3HdWZuL5mXj9SQv-X5e97ONtyH7g; logan_session_token=l7bjf5nnewspuh490zsi; poi_storage_117784746=161097115; _lxsdk_s=17f9bc30705-53f-c83-740||43</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; _lxsdk=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; uuid=c8f83e9b03a2f7e272f5.1631676184.1.0.0; bizType=1; _ga=GA1.2.1224960510.1633924129; _hc.v=3ae2a3d9-2980-079d-8629-c3f18c42da05.1636612396; com.sankuai.meishi.fe.kdb-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; com.sankuai.meishi.fe.bizsettle-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; com.sankuai.meishi.fe.bizvisual-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; poi_storage_112377752=1396489376; logan_session_token=b5x8nt1qdmt5pu0gczq2; _lxsdk_s=17faa2ae83f-bdc-4a-392||107</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17f87299344c8-08f3646cad36ce-977173c-1fa400-17f87299345c8; _lxsdk=17f87299344c8-08f3646cad36ce-977173c-1fa400-17f87299345c8; uuid=42a8ccc7d39ce930c160.1647240122.1.0.0; bizType=1; com.sankuai.meishi.fe.kdb-bsid=eFlZVx2OiMZsYdVk0-fa7JJVVACgC-534pqQz0prO466i8Ad2qG8_TMdjQaWqgnQ-NTBEmPv6DiYCRb5a3TGqA; com.sankuai.meishi.fe.bizsettle-bsid=eFlZVx2OiMZsYdVk0-fa7JJVVACgC-534pqQz0prO466i8Ad2qG8_TMdjQaWqgnQ-NTBEmPv6DiYCRb5a3TGqA; com.sankuai.meishi.fe.bizvisual-bsid=eFlZVx2OiMZsYdVk0-fa7JJVVACgC-534pqQz0prO466i8Ad2qG8_TMdjQaWqgnQ-NTBEmPv6DiYCRb5a3TGqA; poi_storage_122665456=1360522478; _ga=GA1.2.52562687.1647411876; _gid=GA1.2.867929713.1647502654; _gw_ab_8596_41=467; _gw_ab_call_8596_41=TRUE; logan_custom_report=; logan_session_token=9syiub6wwgv904jwt16w; _lxsdk_s=17f9b8f190f-c80-9d4-2f4||126</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17f727f78d4c8-08f2d7c7f1f469-977173c-1fa400-17f727f78d4c8; _lxsdk=17f727f78d4c8-08f2d7c7f1f469-977173c-1fa400-17f727f78d4c8; uuid=6cb4894830fdece656dd.1646893432.1.0.0; bizType=1; com.sankuai.meishi.fe.kdb-bsid=tqmrUZ4GDpR6Dh49OraTxoWTY4Z_3zttdXTLi6zrmavFmI69HlCTVLFBYQNKO_10tn_Ru1wvlNKHiHtti1NLqA; com.sankuai.meishi.fe.bizsettle-bsid=tqmrUZ4GDpR6Dh49OraTxoWTY4Z_3zttdXTLi6zrmavFmI69HlCTVLFBYQNKO_10tn_Ru1wvlNKHiHtti1NLqA; com.sankuai.meishi.fe.bizvisual-bsid=tqmrUZ4GDpR6Dh49OraTxoWTY4Z_3zttdXTLi6zrmavFmI69HlCTVLFBYQNKO_10tn_Ru1wvlNKHiHtti1NLqA; poi_storage_121336128=1752349478; _gw_ab_8596_41=557; _gw_ab_call_8596_41=TRUE; logan_custom_report=; logan_session_token=e51n79p5y16r482loiqe; _lxsdk_s=17f9b8f08b2-768-568-740||422</t>
   </si>
 </sst>
 </file>
@@ -499,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -514,7 +528,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -522,7 +536,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -530,114 +544,130 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ck_new.xlsx
+++ b/ck_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonlin/PycharmProjects/sheet_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A71DC4-7659-734F-8365-34B1DE7B4907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D2090D-F5F4-D34F-944D-F7B04CF281B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1640" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="1640" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>_lxsdk_cuid=17be842d962c8-0a1d4e836d65ba-a7d193d-1fa400-17be842d963c8; _lxsdk=17be842d962c8-0a1d4e836d65ba-a7d193d-1fa400-17be842d963c8; uuid=d1d313e1db876614ac59.1631689300.1.0.0; bizType=1; _ga=GA1.2.902764038.1631857428; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=567; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=gOXjpp20E7uptyumhWyGip4RtcvHrpAp1axJFp2e15-70K_hvVXuj_6Hm3W3oJKV1xFNE5qSBQeQn1xilYHKkg; com.sankuai.meishi.fe.bizsettle-bsid=gOXjpp20E7uptyumhWyGip4RtcvHrpAp1axJFp2e15-70K_hvVXuj_6Hm3W3oJKV1xFNE5qSBQeQn1xilYHKkg; com.sankuai.meishi.fe.bizvisual-bsid=gOXjpp20E7uptyumhWyGip4RtcvHrpAp1axJFp2e15-70K_hvVXuj_6Hm3W3oJKV1xFNE5qSBQeQn1xilYHKkg; poi_storage_60028448=179285070; logan_session_token=hfugr0m4djuwfqlfh0m1; _lxsdk_s=17f8636bfc4-931-bb1-532||172</t>
   </si>
   <si>
-    <t>_lxsdk_cuid=17b959479a0c8-00945f9b40b244-c343365-1fa400-17b959479a1c8; _lxsdk=17b959479a0c8-00945f9b40b244-c343365-1fa400-17b959479a1c8; uuid=a7d4238659704806d7ba.1630302141.1.0.0; grayCityId=; _hc.v=96ad2535-7db4-5b4b-c2bf-fc3ecaf8a443.1630395494; bizType=1; _ga=GA1.2.67572833.1631328048; poi_storage_109185325=576511254; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=ZRxhWmpo08-tBBdj6OHV318MwCnt0u1KPRcTpuCVhZjd3A239d-9UFTh6mVq3bfn5YMjV1S_p0k1MevNRBas-A; com.sankuai.meishi.fe.bizsettle-bsid=ZRxhWmpo08-tBBdj6OHV318MwCnt0u1KPRcTpuCVhZjd3A239d-9UFTh6mVq3bfn5YMjV1S_p0k1MevNRBas-A; com.sankuai.meishi.fe.bizvisual-bsid=ZRxhWmpo08-tBBdj6OHV318MwCnt0u1KPRcTpuCVhZjd3A239d-9UFTh6mVq3bfn5YMjV1S_p0k1MevNRBas-A; logan_session_token=d49x0gcho0jdn9j1msbx; _lxsdk_s=17f1a2ef8cc-a11-6cd-d6d||83</t>
-  </si>
-  <si>
     <t>_lxsdk_cuid=17cbbbee3bbc8-04fe404bf19879-b7a1438-1fa400-17cbbbee3bbc8; _lxsdk=17cbbbee3bbc8-04fe404bf19879-b7a1438-1fa400-17cbbbee3bbc8; uuid=9678a7d8010fbef39ac2.1635237422.1.0.0; bizType=1; _ga=GA1.2.1258256054.1639195281; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=vOnMFsLVIJnfcnqmDQs_52u8PRsJnOBE_TAZO38ld2EBSXSVfxH4bP6wB5vn7kG55PaOhXN8ss-x34t46miD2Q; com.sankuai.meishi.fe.bizsettle-bsid=vOnMFsLVIJnfcnqmDQs_52u8PRsJnOBE_TAZO38ld2EBSXSVfxH4bP6wB5vn7kG55PaOhXN8ss-x34t46miD2Q; com.sankuai.meishi.fe.bizvisual-bsid=vOnMFsLVIJnfcnqmDQs_52u8PRsJnOBE_TAZO38ld2EBSXSVfxH4bP6wB5vn7kG55PaOhXN8ss-x34t46miD2Q; poi_storage_113243629=1715883728; logan_session_token=bhkj6xly1lgzez2ekw9k; _lxsdk_s=17f77aba46e-c9f-47b-46e||73</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>_lxsdk_cuid=17be8ae3709c8-05b7c32343fb72-a7d193d-1fa400-17be8ae3709c8; _lxsdk=17be8ae3709c8-05b7c32343fb72-a7d193d-1fa400-17be8ae3709c8; uuid=bcdf700a6bfbf45ff8e1.1631696337.1.0.0; _ga=GA1.2.359808095.1635212017; bizType=1; _gw_ab_call_11302_21=TRUE; _gw_ab_11302_21=28; _gw_ab_call_15506_15=TRUE; _gw_ab_15506_15=78; com.sankuai.meishi.fe.kdb-bsid=EKMr6LwvbXxxHvHKRhthzpRisucSNeBRQqvGb4gdRlXnGMXix1Z5HpG5rDpBQWFpuAOGvuqBR94oNwebmb72wA; com.sankuai.meishi.fe.bizsettle-bsid=EKMr6LwvbXxxHvHKRhthzpRisucSNeBRQqvGb4gdRlXnGMXix1Z5HpG5rDpBQWFpuAOGvuqBR94oNwebmb72wA; com.sankuai.meishi.fe.bizvisual-bsid=EKMr6LwvbXxxHvHKRhthzpRisucSNeBRQqvGb4gdRlXnGMXix1Z5HpG5rDpBQWFpuAOGvuqBR94oNwebmb72wA; _hc.v=2c905374-101f-259e-76b6-d1b354c6b93a.1646288174; ci=108; _gw_ab_call_8596_40=TRUE; _gw_ab_8596_40=903; poi_storage_59091624=1040380598; _gw_ab_call_19794_25=TRUE; _gw_ab_19794_25=668; logan_session_token=zzfl7vv4buqanryoyf66; logan_custom_report=; _lxsdk_s=17f90db8ab9-274-233-40e||49</t>
   </si>
   <si>
-    <t>_lxsdk_cuid=17e952f5e5ac8-0ef5dad2a075fc-f791539-1fa400-17e952f5e5ac8; _lxsdk=17e952f5e5ac8-0ef5dad2a075fc-f791539-1fa400-17e952f5e5ac8; uuid=94a09119bf0f4670d632.1643180417.1.0.0; bizType=1; poi_storage_116956342=1375182965; _ga=GA1.2.1573551376.1644460065; _hc.v=82fc771b-d7f0-5369-e641-542ac9ac6a29.1644461854; ci=108; _gw_ab_call_8596_39=TRUE; _gw_ab_8596_39=697; com.sankuai.meishi.fe.kdb-bsid=X6zHd_Kivdckgjvs_Q6HQN6-zjmZlO9gm69kg9iO_tRR7drVd-8KfmuEQmv8anscJfBi2xZIyJzWMHlBR86Adg; com.sankuai.meishi.fe.bizsettle-bsid=X6zHd_Kivdckgjvs_Q6HQN6-zjmZlO9gm69kg9iO_tRR7drVd-8KfmuEQmv8anscJfBi2xZIyJzWMHlBR86Adg; com.sankuai.meishi.fe.bizvisual-bsid=X6zHd_Kivdckgjvs_Q6HQN6-zjmZlO9gm69kg9iO_tRR7drVd-8KfmuEQmv8anscJfBi2xZIyJzWMHlBR86Adg; logan_session_token=dw00i6y6spqeo6xsnmq4; _lxsdk_s=17f3f288a57-46a-e67-333||45</t>
-  </si>
-  <si>
     <t>老北京涮肉_新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,13 +145,25 @@
     <t>_lxsdk_cuid=17c9161d480c8-0afeb5d6c4bff6-b7a1438-1fa400-17c9161d480c8; _lxsdk=17c9161d480c8-0afeb5d6c4bff6-b7a1438-1fa400-17c9161d480c8; uuid=d8d3f02956804fa4e793.1634526680.1.0.0; bizType=1; _ga=GA1.2.702618546.1644891740; _hc.v=f8e38cbe-ea1d-7c05-6837-b402557696c4.1644896457; ci=108; _gw_ab_call_8596_39=TRUE; _gw_ab_8596_39=353; logan_custom_report=; com.sankuai.meishi.fe.kdb-bsid=Jk8B_nwuI0ec0aFUD0sBy1nio8nr2am4aY9Wq4jRe175Md9dWqT5wiMNGG3HdWZuL5mXj9SQv-X5e97ONtyH7g; com.sankuai.meishi.fe.bizsettle-bsid=Jk8B_nwuI0ec0aFUD0sBy1nio8nr2am4aY9Wq4jRe175Md9dWqT5wiMNGG3HdWZuL5mXj9SQv-X5e97ONtyH7g; com.sankuai.meishi.fe.bizvisual-bsid=Jk8B_nwuI0ec0aFUD0sBy1nio8nr2am4aY9Wq4jRe175Md9dWqT5wiMNGG3HdWZuL5mXj9SQv-X5e97ONtyH7g; logan_session_token=l7bjf5nnewspuh490zsi; poi_storage_117784746=161097115; _lxsdk_s=17f9bc30705-53f-c83-740||43</t>
   </si>
   <si>
-    <t>_lxsdk_cuid=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; _lxsdk=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; uuid=c8f83e9b03a2f7e272f5.1631676184.1.0.0; bizType=1; _ga=GA1.2.1224960510.1633924129; _hc.v=3ae2a3d9-2980-079d-8629-c3f18c42da05.1636612396; com.sankuai.meishi.fe.kdb-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; com.sankuai.meishi.fe.bizsettle-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; com.sankuai.meishi.fe.bizvisual-bsid=_z-hKF7Cn0WwEtVHIBjuvdz1rzQjd02c2AyxztDLRLpPfv3AVeizfr7DaS5Ef8qdf9wXXOb9L1X20p8fKT2Akg; poi_storage_112377752=1396489376; logan_session_token=b5x8nt1qdmt5pu0gczq2; _lxsdk_s=17faa2ae83f-bdc-4a-392||107</t>
-  </si>
-  <si>
     <t>_lxsdk_cuid=17f87299344c8-08f3646cad36ce-977173c-1fa400-17f87299345c8; _lxsdk=17f87299344c8-08f3646cad36ce-977173c-1fa400-17f87299345c8; uuid=42a8ccc7d39ce930c160.1647240122.1.0.0; bizType=1; com.sankuai.meishi.fe.kdb-bsid=eFlZVx2OiMZsYdVk0-fa7JJVVACgC-534pqQz0prO466i8Ad2qG8_TMdjQaWqgnQ-NTBEmPv6DiYCRb5a3TGqA; com.sankuai.meishi.fe.bizsettle-bsid=eFlZVx2OiMZsYdVk0-fa7JJVVACgC-534pqQz0prO466i8Ad2qG8_TMdjQaWqgnQ-NTBEmPv6DiYCRb5a3TGqA; com.sankuai.meishi.fe.bizvisual-bsid=eFlZVx2OiMZsYdVk0-fa7JJVVACgC-534pqQz0prO466i8Ad2qG8_TMdjQaWqgnQ-NTBEmPv6DiYCRb5a3TGqA; poi_storage_122665456=1360522478; _ga=GA1.2.52562687.1647411876; _gid=GA1.2.867929713.1647502654; _gw_ab_8596_41=467; _gw_ab_call_8596_41=TRUE; logan_custom_report=; logan_session_token=9syiub6wwgv904jwt16w; _lxsdk_s=17f9b8f190f-c80-9d4-2f4||126</t>
   </si>
   <si>
     <t>_lxsdk_cuid=17f727f78d4c8-08f2d7c7f1f469-977173c-1fa400-17f727f78d4c8; _lxsdk=17f727f78d4c8-08f2d7c7f1f469-977173c-1fa400-17f727f78d4c8; uuid=6cb4894830fdece656dd.1646893432.1.0.0; bizType=1; com.sankuai.meishi.fe.kdb-bsid=tqmrUZ4GDpR6Dh49OraTxoWTY4Z_3zttdXTLi6zrmavFmI69HlCTVLFBYQNKO_10tn_Ru1wvlNKHiHtti1NLqA; com.sankuai.meishi.fe.bizsettle-bsid=tqmrUZ4GDpR6Dh49OraTxoWTY4Z_3zttdXTLi6zrmavFmI69HlCTVLFBYQNKO_10tn_Ru1wvlNKHiHtti1NLqA; com.sankuai.meishi.fe.bizvisual-bsid=tqmrUZ4GDpR6Dh49OraTxoWTY4Z_3zttdXTLi6zrmavFmI69HlCTVLFBYQNKO_10tn_Ru1wvlNKHiHtti1NLqA; poi_storage_121336128=1752349478; _gw_ab_8596_41=557; _gw_ab_call_8596_41=TRUE; logan_custom_report=; logan_session_token=e51n79p5y16r482loiqe; _lxsdk_s=17f9b8f08b2-768-568-740||422</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17b959479a0c8-00945f9b40b244-c343365-1fa400-17b959479a1c8; _lxsdk=17b959479a0c8-00945f9b40b244-c343365-1fa400-17b959479a1c8; uuid=a7d4238659704806d7ba.1630302141.1.0.0; _hc.v=96ad2535-7db4-5b4b-c2bf-fc3ecaf8a443.1630395494; bizType=1; _ga=GA1.2.67572833.1631328048; poi_storage_109185325=576511254; com.sankuai.meishi.fe.kdb-bsid=ELybV1N3jwFfxdzkP3PgLmg7yTJwh_0Gtano3Pk4qUp2qA9ZcXPNIQ6mMyhJRhNZAoPDzfnaOo69Y6NEQrKyHQ; com.sankuai.meishi.fe.bizsettle-bsid=ELybV1N3jwFfxdzkP3PgLmg7yTJwh_0Gtano3Pk4qUp2qA9ZcXPNIQ6mMyhJRhNZAoPDzfnaOo69Y6NEQrKyHQ; com.sankuai.meishi.fe.bizvisual-bsid=ELybV1N3jwFfxdzkP3PgLmg7yTJwh_0Gtano3Pk4qUp2qA9ZcXPNIQ6mMyhJRhNZAoPDzfnaOo69Y6NEQrKyHQ; logan_session_token=ph28udacudv4v6kqox1j; _lxsdk_s=17fcfd5eaee-7ad-b1e-ca0||89</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; _lxsdk=17be77ab994c8-0a3fe4ec65045f-a7d193d-1fa400-17be77ab99454; uuid=c8f83e9b03a2f7e272f5.1631676184.1.0.0; bizType=1; _ga=GA1.2.1224960510.1633924129; _hc.v=3ae2a3d9-2980-079d-8629-c3f18c42da05.1636612396; poi_storage_112377752=1396489376; com.sankuai.meishi.fe.kdb-bsid=VX-pG0a0TzGcJqun0s8IyjxWK-HNcdD0hcOnVPhswfcRpdMGGjPFlvXcP8UrUANa4-s8YoqVRzp1srj9bKqt7Q; com.sankuai.meishi.fe.bizsettle-bsid=VX-pG0a0TzGcJqun0s8IyjxWK-HNcdD0hcOnVPhswfcRpdMGGjPFlvXcP8UrUANa4-s8YoqVRzp1srj9bKqt7Q; com.sankuai.meishi.fe.bizvisual-bsid=VX-pG0a0TzGcJqun0s8IyjxWK-HNcdD0hcOnVPhswfcRpdMGGjPFlvXcP8UrUANa4-s8YoqVRzp1srj9bKqt7Q; logan_session_token=bpf4zq0byel59jq7bz0m; _lxsdk_s=17fcfd53fe6-5b8-7cd-554||45</t>
+  </si>
+  <si>
+    <t>状元甲（坦洲店）</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17f57e72ca5c8-0a10dd60237e99-977173c-1fa400-17f57e72ca56; _lxsdk=17f57e72ca5c8-0a10dd60237e99-977173c-1fa400-17f57e72ca56; uuid=a31f47183847f9cb7f75.1646447242.1.0.0; bizType=1; poi_storage_110203613=819133157; _gw_ab_call_8596_40=TRUE; _gw_ab_8596_40=395; com.sankuai.meishi.fe.kdb-bsid=RCzpNNPq77SSkLQwPGYkuzJBxn1D9fRuO8REYSbZHq65hziA71svDY_IQN23sMgkfDtAoOJUW2r_PYOzPaD2nQ; com.sankuai.meishi.fe.bizsettle-bsid=RCzpNNPq77SSkLQwPGYkuzJBxn1D9fRuO8REYSbZHq65hziA71svDY_IQN23sMgkfDtAoOJUW2r_PYOzPaD2nQ; com.sankuai.meishi.fe.bizvisual-bsid=RCzpNNPq77SSkLQwPGYkuzJBxn1D9fRuO8REYSbZHq65hziA71svDY_IQN23sMgkfDtAoOJUW2r_PYOzPaD2nQ; _ga=GA1.2.419544451.1647851517; _hc.v=6adb0632-24f7-1c89-2949-cf14fe6663e8.1647915597; ci=108; logan_custom_report=; logan_session_token=torbbgy94m8lqlfeg8e3; _lxsdk_s=17fb54a74d9-666-942-db3||234</t>
+  </si>
+  <si>
+    <t>_lxsdk_cuid=17e952f5e5ac8-0ef5dad2a075fc-f791539-1fa400-17e952f5e5ac8; _lxsdk=17e952f5e5ac8-0ef5dad2a075fc-f791539-1fa400-17e952f5e5ac8; uuid=94a09119bf0f4670d632.1643180417.1.0.0; bizType=1; _ga=GA1.2.1573551376.1644460065; _hc.v=82fc771b-d7f0-5369-e641-542ac9ac6a29.1644461854; ci=108; poi_storage_116956342=1375182965; _gw_ab_call_8596_41=TRUE; _gw_ab_8596_41=764; com.sankuai.meishi.fe.kdb-bsid=pge8N3rZ3WPvqT7SH8izYvxz-aM77EaMq2cUm1B2fLUNpwknh0w_l6QEt1YMsApWcf0SjgVQGNwogqjFQbYcow; com.sankuai.meishi.fe.bizsettle-bsid=pge8N3rZ3WPvqT7SH8izYvxz-aM77EaMq2cUm1B2fLUNpwknh0w_l6QEt1YMsApWcf0SjgVQGNwogqjFQbYcow; com.sankuai.meishi.fe.bizvisual-bsid=pge8N3rZ3WPvqT7SH8izYvxz-aM77EaMq2cUm1B2fLUNpwknh0w_l6QEt1YMsApWcf0SjgVQGNwogqjFQbYcow; logan_session_token=q2kdolfyfakl6misc2o6; _lxsdk_s=17fcfb9129f-426-b-9e1||154</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -524,11 +530,12 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -536,138 +543,146 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
